--- a/textdata/126邮箱创建联系人并发送邮件.xlsx
+++ b/textdata/126邮箱创建联系人并发送邮件.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
   <si>
     <t>用例名称</t>
   </si>
@@ -59,30 +59,33 @@
     <t>y</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:01</t>
+    <t>2019-04-30 17:54:52</t>
+  </si>
+  <si>
+    <t>faild</t>
+  </si>
+  <si>
+    <t>添加联系人</t>
+  </si>
+  <si>
+    <t>批量添加联系人</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>创建联系人</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>2019-04-30 17:55:15</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>添加联系人</t>
-  </si>
-  <si>
-    <t>批量添加联系人</t>
-  </si>
-  <si>
-    <t>数据</t>
-  </si>
-  <si>
-    <t>创建联系人</t>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>2019-04-01 16:06:27</t>
-  </si>
-  <si>
     <t>发送邮件</t>
   </si>
   <si>
@@ -92,7 +95,7 @@
     <t>发邮件</t>
   </si>
   <si>
-    <t>2019-04-01 16:07:01</t>
+    <t>2019-04-04 16:36:08</t>
   </si>
   <si>
     <t>测试步骤描述</t>
@@ -128,7 +131,17 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>2019-04-01 17:54:23</t>
+    <t>2019-04-30 17:54:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traceback (most recent call last):
+  File "C:/Users/Administrator/PycharmProjects/untitled/DataDrivenFrameWork/testScripts/testsendmailandcreatecontacts.py", line 122, in test_testsendmailandcreatecontacts
+    cls.assertIn()
+NameError: name 'cls' is not defined
+</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-54-32-438201.png</t>
   </si>
   <si>
     <t>访问被测试网址</t>
@@ -140,7 +153,10 @@
     <t>https://www.126.com/</t>
   </si>
   <si>
-    <t>2019-04-01 17:54:24</t>
+    <t>2019-04-30 17:54:36</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-54-36-641201.png</t>
   </si>
   <si>
     <t>窗口最大化</t>
@@ -149,7 +165,10 @@
     <t>manmize_browser</t>
   </si>
   <si>
-    <t>2019-04-01 16:05:49</t>
+    <t>2019-04-30 17:54:38</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-54-38-139201.png</t>
   </si>
   <si>
     <t>等待进入126邮箱网站主页加载完成</t>
@@ -158,7 +177,10 @@
     <t>sleep</t>
   </si>
   <si>
-    <t>2019-04-01 16:05:55</t>
+    <t>2019-04-30 17:54:43</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-54-43-412201.png</t>
   </si>
   <si>
     <t>断言当前页面是否存在预期结果</t>
@@ -170,6 +192,12 @@
     <t>126网易免费邮--你的专业电子邮局</t>
   </si>
   <si>
+    <t>2019-04-30 17:54:44</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-54-43-829201.png</t>
+  </si>
+  <si>
     <t>调取action方法，定位iframe元素并且切换进去</t>
   </si>
   <si>
@@ -182,10 +210,16 @@
     <t>//*[@id = "loginDiv"]/iframe</t>
   </si>
   <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-54-44-129201.png</t>
+  </si>
+  <si>
     <t>进入后等待两秒</t>
   </si>
   <si>
-    <t>2019-04-01 16:05:57</t>
+    <t>2019-04-30 17:54:46</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-54-46-384201.png</t>
   </si>
   <si>
     <t>调取action方法定位，并在输入框输入用户名</t>
@@ -200,12 +234,21 @@
     <t>yp1311375671</t>
   </si>
   <si>
+    <t>2019-04-30 17:54:47</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-54-46-845201.png</t>
+  </si>
+  <si>
     <t>调取action方法定位，并在输入框输入密码</t>
   </si>
   <si>
     <t>//input[@name = "password"]</t>
   </si>
   <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-54-47-221201.png</t>
+  </si>
+  <si>
     <t>点击登陆按钮</t>
   </si>
   <si>
@@ -218,15 +261,27 @@
     <t>dologin</t>
   </si>
   <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-54-47-642201.png</t>
+  </si>
+  <si>
     <t>等待</t>
   </si>
   <si>
+    <t>2019-04-30 17:54:51</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-54-50-918201.png</t>
+  </si>
+  <si>
     <t>断言登陆成功后页面是否存在登陆者账号</t>
   </si>
   <si>
     <t>网易邮箱</t>
   </si>
   <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-54-51-937201.png</t>
+  </si>
+  <si>
     <t>显示等待通讯录按钮</t>
   </si>
   <si>
@@ -236,7 +291,7 @@
     <t>//div[text() = "通讯录"]</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:23</t>
+    <t>2019-04-30 17:55:11</t>
   </si>
   <si>
     <t>点击通讯录</t>
@@ -260,7 +315,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:24</t>
+    <t>2019-04-30 17:55:12</t>
   </si>
   <si>
     <t>输入联系人电子邮箱</t>
@@ -305,7 +360,7 @@
     <t>//span[text() = "确 定"]</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:25</t>
+    <t>2019-04-30 17:55:13</t>
   </si>
   <si>
     <t>等待2秒</t>
@@ -320,19 +375,34 @@
     <t>//div[. = "首页"]</t>
   </si>
   <si>
+    <t>2019-04-30 17:55:16</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-15-713201.png</t>
+  </si>
+  <si>
     <t>判断写信按钮是否可见</t>
   </si>
   <si>
     <t>//span[text() = "写 信"]</t>
   </si>
   <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-16-252201.png</t>
+  </si>
+  <si>
     <t>单机写信按钮</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:28</t>
-  </si>
-  <si>
-    <t>2019-04-01 16:06:31</t>
+    <t>2019-04-30 17:55:17</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-16-721201.png</t>
+  </si>
+  <si>
+    <t>2019-04-30 17:55:19</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-19-182201.png</t>
   </si>
   <si>
     <t>输入收件人地址</t>
@@ -344,6 +414,12 @@
     <t>1311375671@qq.com</t>
   </si>
   <si>
+    <t>2019-04-30 17:55:20</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-19-891201.png</t>
+  </si>
+  <si>
     <t>输入邮件主题</t>
   </si>
   <si>
@@ -353,6 +429,9 @@
     <t>杨盼发的新邮件（自动化测试）</t>
   </si>
   <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-20-586201.png</t>
+  </si>
+  <si>
     <t>上传附件至input</t>
   </si>
   <si>
@@ -362,10 +441,19 @@
     <t>c:\\999.txt</t>
   </si>
   <si>
+    <t>2019-04-30 17:55:21</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-21-315201.png</t>
+  </si>
+  <si>
     <t>等待上传完成出现</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:36</t>
+    <t>2019-04-30 17:55:26</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-26-649201.png</t>
   </si>
   <si>
     <t>显示等待上传完成</t>
@@ -374,7 +462,10 @@
     <t>//span[text() = "上传完成"]</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:37</t>
+    <t>2019-04-30 17:55:27</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-27-018201.png</t>
   </si>
   <si>
     <t>断言是否上传成功</t>
@@ -383,12 +474,18 @@
     <t>上传完成</t>
   </si>
   <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-27-389201.png</t>
+  </si>
+  <si>
     <t>切换进入iframe</t>
   </si>
   <si>
     <t>//iframe[@tabindex="1"]</t>
   </si>
   <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-27-726201.png</t>
+  </si>
+  <si>
     <t>输入邮件正文</t>
   </si>
   <si>
@@ -398,13 +495,25 @@
     <t>发给自己的一封信</t>
   </si>
   <si>
+    <t>2019-04-30 17:55:28</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-28-250201.png</t>
+  </si>
+  <si>
     <t>退出iframe</t>
   </si>
   <si>
     <t>switch_to_content</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:39</t>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-28-639201.png</t>
+  </si>
+  <si>
+    <t>2019-04-30 17:55:31</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-30-959201.png</t>
   </si>
   <si>
     <t>点击发送</t>
@@ -413,10 +522,13 @@
     <t>//footer//span[text() = "发送"]</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:40</t>
-  </si>
-  <si>
-    <t>2019-04-01 16:06:42</t>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-31-409201.png</t>
+  </si>
+  <si>
+    <t>2019-04-30 17:55:34</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-33-774201.png</t>
   </si>
   <si>
     <t>断言页面是否有发送成功提示</t>
@@ -425,7 +537,7 @@
     <t>发送成功</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:44</t>
+    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-30\17-55-34-280201.png</t>
   </si>
   <si>
     <t>关闭浏览器</t>
@@ -464,7 +576,7 @@
     <t>别名</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:11</t>
+    <t>2019-04-30 17:54:58</t>
   </si>
   <si>
     <t>李四</t>
@@ -479,7 +591,7 @@
     <t>朋友</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:15</t>
+    <t>2019-04-30 17:55:02</t>
   </si>
   <si>
     <t>王二</t>
@@ -491,7 +603,7 @@
     <t>亲戚</t>
   </si>
   <si>
-    <t>2019-04-01 16:06:19</t>
+    <t>2019-04-30 17:55:06</t>
   </si>
   <si>
     <t>麻子</t>
@@ -524,140 +636,151 @@
     <t>捏造者</t>
   </si>
   <si>
-    <t>2019-04-04 16:34:34</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:34:37</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:34:38</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:34:43</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:34:45</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:34:46</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:34:49</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:34:56</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:34:57</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:34:58</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:01</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:02</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:03</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:05</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:06</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:07</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:08</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:10</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:11</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:12</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:14</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:15</t>
-  </si>
-  <si>
-    <t>faild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceback (most recent call last):
-  File "C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\testScripts\createcontacts.py", line 91, in datadriverfun
-    eval(runstr)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\action\pageaction.py", line 121, in clicks
-    raise e
-  File "C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\action\pageaction.py", line 119, in clicks
-    getelement(driver,locationtype,locatorexpression).click()
-  File "C:\Users\Administrator\PycharmProjects\untitled\vern\lib\site-packages\selenium\webdriver\remote\webelement.py", line 80, in click
-    self._execute(Command.CLICK_ELEMENT)
-  File "C:\Users\Administrator\PycharmProjects\untitled\vern\lib\site-packages\selenium\webdriver\remote\webelement.py", line 633, in _execute
-    return self._parent.execute(command, params)
-  File "C:\Users\Administrator\PycharmProjects\untitled\vern\lib\site-packages\selenium\webdriver\remote\webdriver.py", line 321, in execute
-    self.error_handler.check_response(response)
-  File "C:\Users\Administrator\PycharmProjects\untitled\vern\lib\site-packages\selenium\webdriver\remote\errorhandler.py", line 242, in check_response
-    raise exception_class(message, screen, stacktrace)
-selenium.common.exceptions.WebDriverException: Message: unknown error: Element &lt;div class="nui-tabs-item-text nui-fNoSelect" unselectable="on" id="_mail_tabitem_1_4text"&gt;...&lt;/div&gt; is not clickable at point (193, 68). Other element would receive the click: &lt;div id="_mail_component_681_681" class="js-component-component nui-mask nui-msgbox-hiding"&gt;&lt;/div&gt;
-  (Session info: chrome=57.0.2987.133)
-  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.1.7601 SP1 x86_64)
-</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\PycharmProjects\untitled\DataDrivenFrameWork\exceptionpictures\2019-4-4\16-35-15-490600.png</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:16</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:17</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:19</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:20</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:22</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:23</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:24</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:29</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:30</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:32</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:34</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:35:36</t>
-  </si>
-  <si>
-    <t>2019-04-04 16:36:08</t>
+    <t>2019-05-06 14:58:10</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:58:13</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:58:15</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:58:20</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:58:22</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:58:23</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:58:26</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:58:27</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:58:37</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:09</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:10</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:12</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:13</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:14</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:15</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:17</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:18</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:19</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:20</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:21</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:23</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:24</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:25</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:26</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:27</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:28</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:30</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:31</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:32</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:33</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:34</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:35</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:37</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:38</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:39</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:40</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:41</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:43</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:44</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:45</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:48</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:49</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:50</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:55</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:56</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:57</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:59:59</t>
+  </si>
+  <si>
+    <t>2019-05-06 15:00:02</t>
+  </si>
+  <si>
+    <t>2019-05-06 15:00:05</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1322,7 @@
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="19" fontId="12" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,6 +1350,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1638,10 +1764,10 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="3" s="2" spans="1:8">
@@ -1664,36 +1790,36 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>191</v>
+        <v>242</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="4" s="2" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1722,272 +1848,272 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="13.5" r="1" s="4" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="2" s="2" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="3" s="2" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s"/>
       <c r="I3" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="4" s="2" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="5" s="2" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="6" s="2" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="7" s="2" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="8" s="2" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="9" s="2" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="10" s="2" spans="1:9">
       <c r="A10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>19930724</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="11" s="2" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="12" s="2" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s"/>
       <c r="I12" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="13" s="2" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
@@ -2022,306 +2148,302 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="13.5" r="1" s="4" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="2" s="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="3" s="2" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="H3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" t="s">
-        <v>193</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="4" s="2" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="5" s="2" spans="1:9">
       <c r="A5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="6" s="2" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
     </row>
     <row customHeight="1" ht="40.5" r="7" s="2" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="8" s="2" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
     </row>
     <row customHeight="1" ht="40.5" r="9" s="2" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="10" s="2" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="11" s="2" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="12" s="2" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s"/>
       <c r="I12" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="13" s="2" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
@@ -2354,199 +2476,199 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="13.5" r="1" s="4" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="2" s="2" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="3" s="2" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s"/>
       <c r="I3" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="4" s="2" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="5" s="2" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
     </row>
     <row customHeight="1" ht="40.5" r="6" s="2" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
     </row>
     <row customHeight="1" ht="40.5" r="7" s="2" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
     </row>
     <row customFormat="1" customHeight="1" ht="40.5" r="8" s="5" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
     </row>
     <row customFormat="1" customHeight="1" ht="40.5" r="9" s="5" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
@@ -2554,209 +2676,209 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="10" s="5" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="11" s="2" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="12" s="2" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s"/>
       <c r="I12" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="13" s="2" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="14" s="2" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s"/>
       <c r="I14" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="15" s="2" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s"/>
       <c r="I15" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="16" s="2" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s"/>
       <c r="I16" t="s"/>
     </row>
     <row customFormat="1" customHeight="1" ht="13.5" r="17" s="6" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s"/>
       <c r="I17" t="s"/>
     </row>
     <row customHeight="1" ht="27" r="18" s="2" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s"/>
       <c r="I18" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="19" s="2" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s"/>
       <c r="I19" t="s"/>
@@ -2785,25 +2907,25 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="13.5" r="1" s="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2811,154 +2933,154 @@
     </row>
     <row customHeight="1" ht="13.5" r="2" s="2" spans="1:8">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="C2" t="n">
         <v>15070662525</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="3" s="2" spans="1:8">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="C3" t="n">
         <v>15070662526</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="4" s="2" spans="1:8">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="C4" t="n">
         <v>15070662527</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="5" s="2" spans="1:8">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C5" t="n">
         <v>15070662528</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="6" s="2" spans="1:8">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="C6" t="n">
         <v>15070662529</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s"/>
       <c r="H6" t="s"/>
     </row>
     <row customHeight="1" ht="13.5" r="7" s="2" spans="1:8">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="C7" t="n">
         <v>15070662530</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>191</v>
+        <v>242</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="8" s="2" spans="1:8"/>
